--- a/Fiche de tests.xlsx
+++ b/Fiche de tests.xlsx
@@ -2,276 +2,258 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\esigelec\Bus de com\Github\project_msp2553\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54636E18-5C65-475B-8323-B7D3DEBE74A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5532F63-BCD8-49D8-9616-14E677C6BC5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CAB66293-C46F-48BD-94B1-AD247E193DDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Tests" sheetId="1" r:id="rId1"/>
     <sheet name="Integration Tests" sheetId="2" r:id="rId2"/>
     <sheet name="Fonctionnal Tests" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+  <si>
+    <t>Integration Tests</t>
+  </si>
   <si>
     <t>test n°</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
     <t>Action</t>
   </si>
   <si>
+    <t>Expected results</t>
+  </si>
+  <si>
+    <t>Obtained results</t>
+  </si>
+  <si>
     <t>OK/KO</t>
   </si>
   <si>
+    <t>Obstacle reaction</t>
+  </si>
+  <si>
+    <t>ADR_0250</t>
+  </si>
+  <si>
+    <t>An obstacle has been detected</t>
+  </si>
+  <si>
+    <t>The robot shall stop and turn right before running forward</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>Void reaction</t>
+  </si>
+  <si>
+    <t>ADR_0450</t>
+  </si>
+  <si>
+    <t>A void has been detected</t>
+  </si>
+  <si>
+    <t>The robot shall stop, run backward for a few inches and turn around before running forward</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>ADR_1100</t>
+  </si>
+  <si>
+    <t>the user enters a wrong command</t>
+  </si>
+  <si>
+    <t>The robot shall display the help assistance</t>
+  </si>
+  <si>
+    <t>Debug mode</t>
+  </si>
+  <si>
+    <t>ADR_1200</t>
+  </si>
+  <si>
+    <t>the user demands the debug mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It shall display the measures of all the sensors on real time </t>
+  </si>
+  <si>
+    <t>Unit Tests</t>
+  </si>
+  <si>
     <t>Turning right</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Expected results</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Obtained results</t>
-  </si>
-  <si>
     <t>DDR_00100</t>
   </si>
   <si>
     <t>The user writes “d” in the terminal</t>
   </si>
   <si>
-    <t>Doesn't move</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>Unit Tests</t>
-  </si>
-  <si>
-    <t>Integration Tests</t>
+    <t>The SamBot shall turn 90° right</t>
+  </si>
+  <si>
+    <t>Turning left</t>
+  </si>
+  <si>
+    <t>DDR_00200</t>
+  </si>
+  <si>
+    <t>The user writes “q” in the terminal</t>
+  </si>
+  <si>
+    <t>The SamBot shall turn 90° left</t>
+  </si>
+  <si>
+    <t>Run forward</t>
+  </si>
+  <si>
+    <t>DDR_00300</t>
+  </si>
+  <si>
+    <t>The user writes “z” in the terminal</t>
+  </si>
+  <si>
+    <t>The SamBot shall run forward</t>
+  </si>
+  <si>
+    <t>Run backward</t>
+  </si>
+  <si>
+    <t>DDR_00400</t>
+  </si>
+  <si>
+    <t>The user writes “s” in the terminal</t>
+  </si>
+  <si>
+    <t>The SamBot shall run backward</t>
+  </si>
+  <si>
+    <t>Change to manual mode</t>
+  </si>
+  <si>
+    <t>DDR_00500</t>
+  </si>
+  <si>
+    <t>The user writes “M” in the terminal</t>
+  </si>
+  <si>
+    <t>the state of the machine shall change to Manual Mode</t>
+  </si>
+  <si>
+    <t>Change to Autonomous mode</t>
+  </si>
+  <si>
+    <t>DDR_00600</t>
+  </si>
+  <si>
+    <t>The user writes “A” in the terminal</t>
+  </si>
+  <si>
+    <t>the state of the machine shall change in Autonomous Mode</t>
+  </si>
+  <si>
+    <t>DDR_00900</t>
+  </si>
+  <si>
+    <t>The user writes “B” in the terminal</t>
+  </si>
+  <si>
+    <t>it shall display the measures of all the sensors in real time</t>
+  </si>
+  <si>
+    <t>Void detection</t>
+  </si>
+  <si>
+    <t>DDR_01200</t>
+  </si>
+  <si>
+    <t>The value received from the infrared sensor (sent by the MSP2231) indicates a void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The MSP2553 shall command the robot to stop, run backward and turn around </t>
+  </si>
+  <si>
+    <t>Infrared’s value conversion</t>
+  </si>
+  <si>
+    <t>DDR_01300</t>
+  </si>
+  <si>
+    <t>The MSP2231 converts the analogic value of the infrared sensor into a numeric value</t>
+  </si>
+  <si>
+    <t>The value shall be converted in a numeric one</t>
+  </si>
+  <si>
+    <t>The value is converted in a numeric one</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Ultrasound’s value conversion</t>
+  </si>
+  <si>
+    <t>DDR_01400</t>
+  </si>
+  <si>
+    <t>The MSP2231 converts the analogic value of the ultrasound sensor into a numeric value</t>
+  </si>
+  <si>
+    <t>Obstacle detection</t>
+  </si>
+  <si>
+    <t>DDR_001500</t>
+  </si>
+  <si>
+    <t>the value received from the ultrasound sensor (sent by the MSP2231) indicates an obstacle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The MSP2553 shall command the robot to stop and turn right </t>
   </si>
   <si>
     <t>Fonctionnal Tests</t>
   </si>
   <si>
-    <t>Turning left</t>
-  </si>
-  <si>
-    <t>Run forward</t>
-  </si>
-  <si>
-    <t>Run backward</t>
-  </si>
-  <si>
-    <t>DDR_00200</t>
-  </si>
-  <si>
-    <t>DDR_00300</t>
-  </si>
-  <si>
-    <t>The user writes “q” in the terminal</t>
-  </si>
-  <si>
-    <t>The SamBot shall turn 90° left</t>
-  </si>
-  <si>
-    <t>The SamBot shall turn 90° right</t>
-  </si>
-  <si>
-    <t>The user writes “z” in the terminal</t>
-  </si>
-  <si>
-    <t>The SamBot shall run forward</t>
-  </si>
-  <si>
-    <t>The user writes “s” in the terminal</t>
-  </si>
-  <si>
-    <t>The SamBot shall run backward</t>
-  </si>
-  <si>
-    <t>Change to manual mode</t>
-  </si>
-  <si>
-    <t>The user writes “M” in the terminal</t>
-  </si>
-  <si>
-    <t>the state of the machine shall change to Manual Mode</t>
-  </si>
-  <si>
-    <t>Doesn't change</t>
-  </si>
-  <si>
-    <t>Change to Autonomous mode</t>
-  </si>
-  <si>
-    <t>The user writes “A” in the terminal</t>
-  </si>
-  <si>
-    <t>the state of the machine shall change in Autonomous Mode</t>
-  </si>
-  <si>
-    <t>The user writes “B” in the terminal</t>
-  </si>
-  <si>
-    <t>it shall display the measures of all the sensors in real time</t>
-  </si>
-  <si>
-    <t>Doesn't display it</t>
-  </si>
-  <si>
-    <t>Debug mode</t>
-  </si>
-  <si>
-    <t>Void detection</t>
-  </si>
-  <si>
-    <t>Obstacle detection</t>
-  </si>
-  <si>
-    <t>The value received from the infrared sensor (sent by the MSP2231) indicates a void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The MSP2553 shall command the robot to stop, run backward and turn around </t>
-  </si>
-  <si>
-    <t>the value received from the ultrasound sensor (sent by the MSP2231) indicates an obstacle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The MSP2553 shall command the robot to stop and turn right </t>
-  </si>
-  <si>
-    <t>Obstacle reaction</t>
-  </si>
-  <si>
-    <t>ADR_0250</t>
-  </si>
-  <si>
-    <t>Void reaction</t>
-  </si>
-  <si>
-    <t>ADR_0450</t>
-  </si>
-  <si>
-    <t>An obstacle has been detected</t>
-  </si>
-  <si>
-    <t>A void has been detected</t>
-  </si>
-  <si>
-    <t>The robot shall stop and turn right before running forward</t>
-  </si>
-  <si>
-    <t>The robot shall stop, run backward for a few inches and turn around before running forward</t>
-  </si>
-  <si>
-    <t>Help</t>
-  </si>
-  <si>
-    <t>the user enters a wrong command</t>
-  </si>
-  <si>
-    <t>ADR_1100</t>
-  </si>
-  <si>
-    <t>The robot shall display the help assistance</t>
-  </si>
-  <si>
-    <t>ADR_1200</t>
-  </si>
-  <si>
-    <t>the user demands the debug mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It shall display the measures of all the sensors on real time </t>
-  </si>
-  <si>
     <t xml:space="preserve">Obstacle detection </t>
   </si>
   <si>
+    <t>SYS_0200</t>
+  </si>
+  <si>
+    <t>The robot is running, an obstacle comes forward</t>
+  </si>
+  <si>
     <t>The SamBot shall detect obstacles in front of it</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Detects it</t>
-  </si>
-  <si>
-    <t>The robot is running, an obstacle comes forward</t>
-  </si>
-  <si>
-    <t>DDR_00400</t>
-  </si>
-  <si>
-    <t>DDR_00500</t>
-  </si>
-  <si>
-    <t>DDR_00600</t>
-  </si>
-  <si>
-    <t>DDR_00900</t>
-  </si>
-  <si>
-    <t>DDR_001500</t>
-  </si>
-  <si>
-    <t>DDR_01400</t>
-  </si>
-  <si>
-    <t>DDR_01200</t>
-  </si>
-  <si>
-    <t>DDR_01300</t>
-  </si>
-  <si>
-    <t>Infrared’s value conversion</t>
-  </si>
-  <si>
-    <t>Ultrasound’s value conversion</t>
-  </si>
-  <si>
-    <t>The MSP2231 converts the analogic value of the infrared sensor into a numeric value</t>
-  </si>
-  <si>
-    <t>The MSP2231 converts the analogic value of the ultrasound sensor into a numeric value</t>
-  </si>
-  <si>
-    <t>The value is converted in a numeric one</t>
-  </si>
-  <si>
-    <t>The value shall be converted in a numeric one</t>
-  </si>
-  <si>
-    <t>SYS_0200</t>
-  </si>
-  <si>
     <t>SYS_0300</t>
   </si>
   <si>
@@ -287,10 +269,31 @@
     <t>The user demands the debug mode</t>
   </si>
   <si>
-    <t>doesn't display it</t>
-  </si>
-  <si>
     <t>It shall display the debug value</t>
+  </si>
+  <si>
+    <t>Doesn't move : the user can't write in the terminal due to a UART connection failure</t>
+  </si>
+  <si>
+    <t>Doesn't change : the user can't write in the terminal due to a UART connection failure</t>
+  </si>
+  <si>
+    <t>Doesn't display it : the user can't write in the terminal due to a UART connection failure</t>
+  </si>
+  <si>
+    <t>can't be tested : the user can't write in the terminal due to a UART connection failure</t>
+  </si>
+  <si>
+    <t>Doesn't move : The MSP2553 can't command the robot because it doesn't received SPI warning</t>
+  </si>
+  <si>
+    <t>Doesn't detect : void isn't detect due to the SPI conection faillure and the fact that the bot doesn't move</t>
+  </si>
+  <si>
+    <t>Doesn't detect : obstacles aren't detect due to the SPI conection faillure and the fact that the bot doesn't move</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can't be tested : the robot doesn't move</t>
   </si>
 </sst>
 </file>
@@ -419,9 +422,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -452,6 +452,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +478,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -770,14 +773,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F363BB6-A9C9-45D6-A450-F7225DD9B43E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q158"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
@@ -787,15 +790,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -808,290 +811,290 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>11</v>
+      <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="B13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="D14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>11</v>
+      <c r="F14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2398,14 +2401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0118AD2-D847-41E5-BAEC-33447985BD2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -2415,391 +2418,391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>11</v>
+      <c r="B7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
@@ -2846,14 +2849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6873AF2B-5770-4DAA-8024-5EDA557091B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
@@ -2863,332 +2866,332 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="B4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>11</v>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
